--- a/biology/Zoologie/Carcinus/Carcinus.xlsx
+++ b/biology/Zoologie/Carcinus/Carcinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carcinus est un genre de crabes de la famille des Portunidae ou des Carcinidae selon certaines classifications (WoRMS, Catalogue of Life, NCBI, etc.). Il comporte deux espèces actuelles et deux fossiles.
 </t>
@@ -511,12 +523,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (7 février 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (7 février 2021) :
 Carcinus aestuarii Nardo, 1847 - synonyme Carcinus mediterraneus Czerniavsky, 1884 - crabe vert de Méditerranée
 Carcinus maenas (Linnaeus, 1758) - crabe enragé ou crabe vert
-Espèces fossiles selon Paleobiology Database                   (1 septembre 2015)[3] :
+Espèces fossiles selon Paleobiology Database                   (1 septembre 2015) :
 Carcinus agnoensis
 Carcinus minor
 			Carcinus aestuarii
@@ -549,7 +563,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Leach, 1814 : Crustaceology. The Edinburgh Encyclopædia. vol. 7. p. 385–437.</t>
         </is>
